--- a/documents/EHI_agreement_datacollection_v2.xlsx
+++ b/documents/EHI_agreement_datacollection_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anttonalberdi/Google Drive/EHI - Earth Hologenome Initiative/Agreements/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anttonalberdi/github/earthhologenome.github.io/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1268A037-82C4-F440-94B4-B034F4C3F7C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65FF407-0EF7-7B49-A88B-01AD73DF391F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="27420" windowHeight="21940" xr2:uid="{219207FB-A651-894D-B55E-E45B7CC9F132}"/>
+    <workbookView xWindow="9840" yWindow="500" windowWidth="27420" windowHeight="21940" xr2:uid="{219207FB-A651-894D-B55E-E45B7CC9F132}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Complete name of the signatory</t>
   </si>
@@ -91,12 +91,6 @@
   </si>
   <si>
     <t>1,2</t>
-  </si>
-  <si>
-    <t>This document aims at collecting the necessary information for signing the EHI Participation Agreement. Please, fill out the required yellow fields and send the</t>
-  </si>
-  <si>
-    <t>document to ehi@sund.ku.dk</t>
   </si>
   <si>
     <t>Add one row per combination of species and country of origin.</t>
@@ -154,12 +148,43 @@
   <si>
     <t>* The number or code that uniquely identifies the institution or the person (e.g., VAT, ID, Social Security number, etc.)</t>
   </si>
+  <si>
+    <t>This document aims at collecting the necessary information for signing the EHI Participation Agreement. Please, fill out the required yellow fields and do not</t>
+  </si>
+  <si>
+    <t>hesitate to contact us at ehi@sund.ku.dk if you have any question</t>
+  </si>
+  <si>
+    <t>Once the document is ready, send it to the Management Team through the information submission form: http://www.earthhologenome.org/infosubmission.html</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Participation Agreement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> information collection template</t>
+    </r>
+  </si>
+  <si>
+    <t>v2, September 2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -228,6 +253,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -273,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -285,7 +321,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -295,9 +330,15 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B81F612-27B1-F242-8086-BE57576F9DB2}">
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -699,13 +740,17 @@
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -714,968 +759,977 @@
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="15"/>
+        <v>4</v>
+      </c>
+      <c r="D9" s="14"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D10" s="14"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>36</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="15" t="s">
+        <v>34</v>
+      </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="B13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="15"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="B18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
-      <c r="B19" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
-      <c r="B20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="3"/>
+      <c r="B20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
-      <c r="B21" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="B21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
-      <c r="B22" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="B22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
-      <c r="B23" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+      <c r="B23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="B24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>1</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="12">
-        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>2</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="11">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>3</v>
-      </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>4</v>
-      </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="12"/>
+        <v>3</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="11"/>
     </row>
     <row r="30" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>5</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="12"/>
+        <v>4</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>6</v>
-      </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="12"/>
+        <v>5</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>7</v>
-      </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="12"/>
+        <v>6</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>8</v>
-      </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="12"/>
+        <v>7</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>9</v>
-      </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="12"/>
+        <v>8</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>10</v>
-      </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="12"/>
+        <v>9</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>11</v>
-      </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="11"/>
     </row>
     <row r="37" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>12</v>
-      </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="12"/>
+        <v>11</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>13</v>
-      </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="12"/>
+        <v>12</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>14</v>
-      </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="12"/>
+        <v>13</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="11"/>
     </row>
     <row r="40" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>15</v>
-      </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="12"/>
+        <v>14</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>16</v>
-      </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="12"/>
+        <v>15</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>17</v>
-      </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="12"/>
+        <v>16</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="11"/>
     </row>
     <row r="43" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>18</v>
-      </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="12"/>
+        <v>17</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>19</v>
-      </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="12"/>
+        <v>18</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>20</v>
-      </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>21</v>
-      </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="12"/>
+        <v>20</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="11"/>
     </row>
     <row r="47" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>22</v>
-      </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="11"/>
     </row>
     <row r="48" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>23</v>
-      </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="12"/>
+        <v>22</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="11"/>
     </row>
     <row r="49" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>24</v>
-      </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="12"/>
+        <v>23</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="11"/>
     </row>
     <row r="50" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>25</v>
-      </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="12"/>
+        <v>24</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="11"/>
     </row>
     <row r="51" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>26</v>
-      </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="12"/>
+        <v>25</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="11"/>
     </row>
     <row r="52" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>27</v>
-      </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="12"/>
+        <v>26</v>
+      </c>
+      <c r="B52" s="10"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="11"/>
     </row>
     <row r="53" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>28</v>
-      </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="12"/>
+        <v>27</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="11"/>
     </row>
     <row r="54" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>29</v>
-      </c>
-      <c r="B54" s="11"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="12"/>
+        <v>28</v>
+      </c>
+      <c r="B54" s="10"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="11"/>
     </row>
     <row r="55" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>30</v>
-      </c>
-      <c r="B55" s="11"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="12"/>
+        <v>29</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="11"/>
     </row>
     <row r="56" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>31</v>
-      </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="12"/>
+        <v>30</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="11"/>
     </row>
     <row r="57" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>32</v>
-      </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="12"/>
+        <v>31</v>
+      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="11"/>
     </row>
     <row r="58" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>33</v>
-      </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="12"/>
+        <v>32</v>
+      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="11"/>
     </row>
     <row r="59" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>34</v>
-      </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="12"/>
+        <v>33</v>
+      </c>
+      <c r="B59" s="10"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="11"/>
     </row>
     <row r="60" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>35</v>
-      </c>
-      <c r="B60" s="11"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="B60" s="10"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="11"/>
     </row>
     <row r="61" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>36</v>
-      </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="12"/>
+        <v>35</v>
+      </c>
+      <c r="B61" s="10"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="11"/>
     </row>
     <row r="62" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>37</v>
-      </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="12"/>
+        <v>36</v>
+      </c>
+      <c r="B62" s="10"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="11"/>
     </row>
     <row r="63" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>38</v>
-      </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="12"/>
+        <v>37</v>
+      </c>
+      <c r="B63" s="10"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="11"/>
     </row>
     <row r="64" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>39</v>
-      </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="12"/>
+        <v>38</v>
+      </c>
+      <c r="B64" s="10"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="11"/>
     </row>
     <row r="65" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>40</v>
-      </c>
-      <c r="B65" s="11"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="12"/>
+        <v>39</v>
+      </c>
+      <c r="B65" s="10"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="11"/>
     </row>
     <row r="66" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>41</v>
-      </c>
-      <c r="B66" s="11"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="12"/>
+        <v>40</v>
+      </c>
+      <c r="B66" s="10"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="11"/>
     </row>
     <row r="67" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>42</v>
-      </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="12"/>
+        <v>41</v>
+      </c>
+      <c r="B67" s="10"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="11"/>
     </row>
     <row r="68" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>43</v>
-      </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="12"/>
+        <v>42</v>
+      </c>
+      <c r="B68" s="10"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="11"/>
     </row>
     <row r="69" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>44</v>
-      </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="12"/>
+        <v>43</v>
+      </c>
+      <c r="B69" s="10"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="11"/>
     </row>
     <row r="70" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>45</v>
-      </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="12"/>
+        <v>44</v>
+      </c>
+      <c r="B70" s="10"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="11"/>
     </row>
     <row r="71" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>46</v>
-      </c>
-      <c r="B71" s="11"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="B71" s="10"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="11"/>
     </row>
     <row r="72" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>47</v>
-      </c>
-      <c r="B72" s="11"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="12"/>
+        <v>46</v>
+      </c>
+      <c r="B72" s="10"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="11"/>
     </row>
     <row r="73" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>48</v>
-      </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="12"/>
+        <v>47</v>
+      </c>
+      <c r="B73" s="10"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="11"/>
     </row>
     <row r="74" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>49</v>
-      </c>
-      <c r="B74" s="11"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="12"/>
+        <v>48</v>
+      </c>
+      <c r="B74" s="10"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="11"/>
     </row>
     <row r="75" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>50</v>
-      </c>
-      <c r="B75" s="11"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="12"/>
+        <v>49</v>
+      </c>
+      <c r="B75" s="10"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="11"/>
     </row>
     <row r="76" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>51</v>
-      </c>
-      <c r="B76" s="11"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="12"/>
+        <v>50</v>
+      </c>
+      <c r="B76" s="10"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="11"/>
     </row>
     <row r="77" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>52</v>
-      </c>
-      <c r="B77" s="11"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="12"/>
+        <v>51</v>
+      </c>
+      <c r="B77" s="10"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="11"/>
     </row>
     <row r="78" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>53</v>
-      </c>
-      <c r="B78" s="11"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="12"/>
+        <v>52</v>
+      </c>
+      <c r="B78" s="10"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="11"/>
     </row>
     <row r="79" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>54</v>
-      </c>
-      <c r="B79" s="11"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="12"/>
+        <v>53</v>
+      </c>
+      <c r="B79" s="10"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="11"/>
     </row>
     <row r="80" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>55</v>
-      </c>
-      <c r="B80" s="11"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="12"/>
+        <v>54</v>
+      </c>
+      <c r="B80" s="10"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="11"/>
     </row>
     <row r="81" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>56</v>
-      </c>
-      <c r="B81" s="11"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="12"/>
+        <v>55</v>
+      </c>
+      <c r="B81" s="10"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="11"/>
     </row>
     <row r="82" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>57</v>
-      </c>
-      <c r="B82" s="11"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="B82" s="10"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="11"/>
     </row>
     <row r="83" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>58</v>
-      </c>
-      <c r="B83" s="11"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="12"/>
+        <v>57</v>
+      </c>
+      <c r="B83" s="10"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="11"/>
     </row>
     <row r="84" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>59</v>
-      </c>
-      <c r="B84" s="11"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="12"/>
+        <v>58</v>
+      </c>
+      <c r="B84" s="10"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="11"/>
     </row>
     <row r="85" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>60</v>
-      </c>
-      <c r="B85" s="11"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="12"/>
+        <v>59</v>
+      </c>
+      <c r="B85" s="10"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="11"/>
     </row>
     <row r="86" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>61</v>
-      </c>
-      <c r="B86" s="11"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="12"/>
+        <v>60</v>
+      </c>
+      <c r="B86" s="10"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="11"/>
     </row>
     <row r="87" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>62</v>
-      </c>
-      <c r="B87" s="11"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="12"/>
+        <v>61</v>
+      </c>
+      <c r="B87" s="10"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="11"/>
     </row>
     <row r="88" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>63</v>
-      </c>
-      <c r="B88" s="11"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="12"/>
+        <v>62</v>
+      </c>
+      <c r="B88" s="10"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="11"/>
     </row>
     <row r="89" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>64</v>
-      </c>
-      <c r="B89" s="11"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="12"/>
+        <v>63</v>
+      </c>
+      <c r="B89" s="10"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="11"/>
     </row>
     <row r="90" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>65</v>
-      </c>
-      <c r="B90" s="11"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="12"/>
+        <v>64</v>
+      </c>
+      <c r="B90" s="10"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="11"/>
     </row>
     <row r="91" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>66</v>
-      </c>
-      <c r="B91" s="11"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="12"/>
+        <v>65</v>
+      </c>
+      <c r="B91" s="10"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="11"/>
     </row>
     <row r="92" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>67</v>
-      </c>
-      <c r="B92" s="11"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="B92" s="10"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="11"/>
     </row>
     <row r="93" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>68</v>
-      </c>
-      <c r="B93" s="11"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="12"/>
+        <v>67</v>
+      </c>
+      <c r="B93" s="10"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="11"/>
     </row>
     <row r="94" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>69</v>
-      </c>
-      <c r="B94" s="11"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="12"/>
+        <v>68</v>
+      </c>
+      <c r="B94" s="10"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="11"/>
     </row>
     <row r="95" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <v>70</v>
-      </c>
-      <c r="B95" s="11"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="12"/>
+        <v>69</v>
+      </c>
+      <c r="B95" s="10"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="11"/>
     </row>
     <row r="96" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>71</v>
-      </c>
-      <c r="B96" s="11"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="12"/>
+        <v>70</v>
+      </c>
+      <c r="B96" s="10"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="11"/>
     </row>
     <row r="97" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <v>72</v>
-      </c>
-      <c r="B97" s="11"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="12"/>
+        <v>71</v>
+      </c>
+      <c r="B97" s="10"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="11"/>
     </row>
     <row r="98" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>73</v>
-      </c>
-      <c r="B98" s="11"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="12"/>
+        <v>72</v>
+      </c>
+      <c r="B98" s="10"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="11"/>
     </row>
     <row r="99" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
-        <v>74</v>
-      </c>
-      <c r="B99" s="11"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="12"/>
+        <v>73</v>
+      </c>
+      <c r="B99" s="10"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="11"/>
     </row>
     <row r="100" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>75</v>
-      </c>
-      <c r="B100" s="11"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="12"/>
+        <v>74</v>
+      </c>
+      <c r="B100" s="10"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="11"/>
     </row>
     <row r="101" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
-        <v>76</v>
-      </c>
-      <c r="B101" s="11"/>
-      <c r="C101" s="12"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="12"/>
+        <v>75</v>
+      </c>
+      <c r="B101" s="10"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="11"/>
     </row>
     <row r="102" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <v>77</v>
-      </c>
-      <c r="B102" s="11"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="12"/>
+        <v>76</v>
+      </c>
+      <c r="B102" s="10"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="11"/>
     </row>
     <row r="103" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <v>78</v>
-      </c>
-      <c r="B103" s="11"/>
-      <c r="C103" s="12"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="12"/>
+        <v>77</v>
+      </c>
+      <c r="B103" s="10"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="11"/>
     </row>
     <row r="104" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <v>79</v>
-      </c>
-      <c r="B104" s="11"/>
-      <c r="C104" s="12"/>
-      <c r="D104" s="13"/>
-      <c r="E104" s="12"/>
+        <v>78</v>
+      </c>
+      <c r="B104" s="10"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="11"/>
     </row>
     <row r="105" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
+        <v>79</v>
+      </c>
+      <c r="B105" s="10"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="11"/>
+    </row>
+    <row r="106" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
         <v>80</v>
       </c>
-      <c r="B105" s="11"/>
-      <c r="C105" s="12"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="12"/>
-    </row>
-    <row r="106" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="11"/>
     </row>
     <row r="107" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="B107" s="2"/>
+      <c r="A107" s="2"/>
+      <c r="B107" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
     </row>
+    <row r="108" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D12:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
